--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.551829268292683</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9890710382513661</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.006756756756756757</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5498489425981873</v>
+        <v>0.5558912386706949</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7084148727984345</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.459214501510574</v>
+        <v>0.4894259818731118</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09270266966882217</v>
+        <v>0.1361926631387548</v>
       </c>
       <c r="J2" t="n">
-        <v>1170.930957533077</v>
+        <v>1875.990812619985</v>
       </c>
       <c r="K2" t="n">
-        <v>1747457.899204005</v>
+        <v>5416766.832079934</v>
       </c>
       <c r="L2" t="n">
-        <v>1321.914482560806</v>
+        <v>2327.394859511367</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6733242594799769</v>
+        <v>-0.01262886899882409</v>
       </c>
     </row>
   </sheetData>
